--- a/openbis_standard_technologies/sourceTest/java/ch/ethz/sis/openbis/systemtest/plugin/excelimport/test_files/xls/with_blanks.xlsx
+++ b/openbis_standard_technologies/sourceTest/java/ch/ethz/sis/openbis/systemtest/plugin/excelimport/test_files/xls/with_blanks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mariapukhliakova/git/openbis/openbis_standard_technologies/sourceTest/java/ch/ethz/sis/openbis/systemtest/plugin/excelimport/test_files/xls/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juanf/Documents/sissource/openbis/openbis_standard_technologies/sourceTest/java/ch/ethz/sis/openbis/systemtest/plugin/excelimport/test_files/xls/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CC6662B-D265-1044-9E16-CFDA474BB782}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AB852D1-3C24-3E4B-8156-BB83437F7D0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="2060" windowWidth="27640" windowHeight="16940" activeTab="1" xr2:uid="{AE64C6C9-B429-4F4C-88C3-A61AB974594B}"/>
+    <workbookView xWindow="3180" yWindow="2060" windowWidth="27640" windowHeight="16940" xr2:uid="{AE64C6C9-B429-4F4C-88C3-A61AB974594B}"/>
   </bookViews>
   <sheets>
     <sheet name="TYPES" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="95">
   <si>
     <t>VOCABULARY_TYPE</t>
   </si>
@@ -766,14 +766,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35B817A2-4B31-0F46-9E71-6B88B1627269}">
   <dimension ref="A1:T60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.5" customWidth="1"/>
     <col min="2" max="2" width="25.83203125" customWidth="1"/>
+    <col min="3" max="3" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="51.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="17" x14ac:dyDescent="0.2">
@@ -874,13 +877,15 @@
       <c r="B10" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="E10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
@@ -894,7 +899,7 @@
       <c r="B11" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="2" t="b">
+      <c r="D11" s="2" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1264,7 +1269,10 @@
       <c r="B28" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" s="3" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1550,7 +1558,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9E552EA-E836-E14D-9E34-0420B58F0D5D}">
   <dimension ref="A1:Q37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
